--- a/data/trans_camb/P2405-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P2405-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 2,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 1,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 0,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 0,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 0,75</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,66%</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 0,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 0,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,26</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>120,07%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-10,61%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>145,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,16%</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,97; 1067,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,86; 1060,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 1,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 0,95</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>171,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>192,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,67%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,28; 1205,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,14; 882,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,08; 1465,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,2; 1173,99</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 0,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 1,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,96; 0,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,54</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,1%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,15; 520,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,3; 783,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,08; 187,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,03; 258,66</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 0,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 0,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 0,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 0,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 0,35</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,51%</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 300,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,0; 243,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,17 +1510,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,07; 351,05</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,62; 211,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; 168,24</t>
         </is>
       </c>
     </row>
